--- a/Source Code/User experience test/Test duration.xlsx
+++ b/Source Code/User experience test/Test duration.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Master thesis revise/User experience test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E3C95-9F91-A944-B160-C54A12E43FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCBC4B4-48EB-ED41-80D5-9426BB4346C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{34BC19D8-54AF-6A4A-B31B-CF2112DD5779}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{34BC19D8-54AF-6A4A-B31B-CF2112DD5779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +212,16 @@
   <si>
     <t>G.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
   </si>
 </sst>
 </file>
@@ -326,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +351,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +378,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,58 +697,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8F2DD1-A62B-5446-83AE-9355D39EF31F}">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="29" width="6.83203125" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" style="2" customWidth="1"/>
+    <col min="2" max="31" width="6.83203125" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:32">
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -813,43 +835,51 @@
       <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="7"/>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="11" t="s">
+      <c r="AD2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -937,12 +967,18 @@
       <c r="AC4" s="5">
         <v>36</v>
       </c>
-      <c r="AD4" s="5">
-        <f>AVERAGE(B4:AC4)</f>
-        <v>38.285714285714285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4" s="7">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="5">
+        <f>AVERAGE(B4:AE4)</f>
+        <v>38.233333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -1030,12 +1066,18 @@
       <c r="AC5" s="5">
         <v>16</v>
       </c>
-      <c r="AD5" s="5">
-        <f t="shared" ref="AD5:AD7" si="0">AVERAGE(B5:AC5)</f>
-        <v>15.857142857142858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AD5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="5">
+        <f>AVERAGE(B5:AE5)</f>
+        <v>16.033333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -1123,12 +1165,18 @@
       <c r="AC6" s="5">
         <v>11</v>
       </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="0"/>
-        <v>19.678571428571427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AD6" s="7">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="5">
+        <f>AVERAGE(B6:AE6)</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1216,46 +1264,54 @@
       <c r="AC7" s="5">
         <v>15</v>
       </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="0"/>
-        <v>19.214285714285715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="11" t="s">
+      <c r="AD7" s="7">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="5">
+        <f>AVERAGE(B7:AE7)</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1343,12 +1399,18 @@
       <c r="AC9" s="5">
         <v>12</v>
       </c>
-      <c r="AD9" s="5">
-        <f>AVERAGE(B9:AC9)</f>
-        <v>21.142857142857142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AD9" s="7">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="5">
+        <f>AVERAGE(B9:AE9)</f>
+        <v>21.233333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1436,12 +1498,18 @@
       <c r="AC10" s="5">
         <v>27</v>
       </c>
-      <c r="AD10" s="5">
-        <f t="shared" ref="AD10:AD23" si="1">AVERAGE(B10:AC10)</f>
-        <v>29.535714285714285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AD10" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>27</v>
+      </c>
+      <c r="AF10" s="5">
+        <f>AVERAGE(B10:AE10)</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1529,46 +1597,54 @@
       <c r="AC11" s="5">
         <v>20</v>
       </c>
-      <c r="AD11" s="5">
-        <f t="shared" si="1"/>
-        <v>25.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="8" t="s">
+      <c r="AD11" s="7">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>24</v>
+      </c>
+      <c r="AF11" s="5">
+        <f>AVERAGE(B11:AE11)</f>
+        <v>25.466666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="10"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1656,12 +1732,18 @@
       <c r="AC13" s="5">
         <v>53</v>
       </c>
-      <c r="AD13" s="5">
-        <f t="shared" si="1"/>
-        <v>43.285714285714285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AD13" s="7">
+        <v>46</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="5">
+        <f>AVERAGE(B13:AE13)</f>
+        <v>43.266666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1749,46 +1831,54 @@
       <c r="AC14" s="5">
         <v>27</v>
       </c>
-      <c r="AD14" s="5">
-        <f t="shared" si="1"/>
-        <v>28.142857142857142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="11" t="s">
+      <c r="AD14" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>21</v>
+      </c>
+      <c r="AF14" s="5">
+        <f>AVERAGE(B14:AE14)</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1876,46 +1966,54 @@
       <c r="AC16" s="5">
         <v>1</v>
       </c>
-      <c r="AD16" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="11" t="s">
+      <c r="AD16" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="5">
+        <f>AVERAGE(B16:AE16)</f>
+        <v>1.7666666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -2003,46 +2101,54 @@
       <c r="AC18" s="5">
         <v>5</v>
       </c>
-      <c r="AD18" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0714285714285712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="11" t="s">
+      <c r="AD18" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>AVERAGE(B18:AE18)</f>
+        <v>8.0333333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -2130,12 +2236,18 @@
       <c r="AC20" s="5">
         <v>11</v>
       </c>
-      <c r="AD20" s="5">
-        <f t="shared" si="1"/>
-        <v>9.5357142857142865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AD20" s="7">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="5">
+        <f>AVERAGE(B20:AE20)</f>
+        <v>9.5333333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -2223,46 +2335,54 @@
       <c r="AC21" s="5">
         <v>7</v>
       </c>
-      <c r="AD21" s="5">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="11" t="s">
+      <c r="AD21" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>11</v>
+      </c>
+      <c r="AF21" s="5">
+        <f>AVERAGE(B21:AE21)</f>
+        <v>8.5666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -2350,12 +2470,18 @@
       <c r="AC23" s="5">
         <v>5</v>
       </c>
-      <c r="AD23" s="5">
-        <f t="shared" si="1"/>
-        <v>5.4285714285714288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AD23" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="5">
+        <f>AVERAGE(B23:AE23)</f>
+        <v>5.4333333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2385,138 +2511,148 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
         <f>SUM(B4+B5+B6+B7+B9+B10+B11+B13+B14+B16+B18+B20+B21+B23)</f>
         <v>276</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:AC25" si="2">SUM(C4+C5+C6+C7+C9+C10+C11+C13+C14+C16+C18+C20+C21+C23)</f>
+        <f t="shared" ref="C25:AE25" si="0">SUM(C4+C5+C6+C7+C9+C10+C11+C13+C14+C16+C18+C20+C21+C23)</f>
         <v>312</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>434</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>316</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>271</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>301</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>263</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="AD25" s="1">
-        <f>AVERAGE(AD4+AD5+AD6+AD7+AD9+AD10+AD11+AD13+AD14+AD16+AD18+AD20+AD21+AD23)</f>
-        <v>274.21428571428572</v>
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="AF25" s="1">
+        <f>AVERAGE(AF4+AF5+AF6+AF7+AF9+AF10+AF11+AF13+AF14+AF16+AF18+AF20+AF21+AF23)</f>
+        <v>273.06666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="B1:AC1"/>
-    <mergeCell ref="A22:AD22"/>
-    <mergeCell ref="A12:AD12"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="A8:AD8"/>
-    <mergeCell ref="A15:AD15"/>
-    <mergeCell ref="A17:AD17"/>
-    <mergeCell ref="A19:AD19"/>
+    <mergeCell ref="A22:AF22"/>
+    <mergeCell ref="A12:AF12"/>
+    <mergeCell ref="A3:AF3"/>
+    <mergeCell ref="A8:AF8"/>
+    <mergeCell ref="A15:AF15"/>
+    <mergeCell ref="A17:AF17"/>
+    <mergeCell ref="A19:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2525,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AEAD61-EC1E-BF4C-B0AC-737723D71134}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3812,6 +3948,293 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7">
+        <v>28</v>
+      </c>
+      <c r="G30" s="7">
+        <v>19</v>
+      </c>
+      <c r="H30" s="7">
+        <v>46</v>
+      </c>
+      <c r="I30" s="7">
+        <v>28</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>8</v>
+      </c>
+      <c r="L30" s="7">
+        <v>10</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7">
+        <v>42</v>
+      </c>
+      <c r="B31" s="7">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7">
+        <v>15</v>
+      </c>
+      <c r="D31" s="7">
+        <v>14</v>
+      </c>
+      <c r="E31" s="7">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7">
+        <v>27</v>
+      </c>
+      <c r="G31" s="7">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7">
+        <v>40</v>
+      </c>
+      <c r="I31" s="7">
+        <v>21</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>7</v>
+      </c>
+      <c r="L31" s="7">
+        <v>9</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9319D4B-0548-C947-86E3-F818056EB88E}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <f>Sheet1!B25</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <f>Sheet1!C25</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <f>Sheet1!D25</f>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <f>Sheet1!E25</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <f>Sheet1!F25</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4">
+        <f>Sheet1!G25</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <f>Sheet1!H25</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <f>Sheet1!I25</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <f>Sheet1!J25</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <f>Sheet1!K25</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4">
+        <f>Sheet1!L25</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <f>Sheet1!M25</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <f>Sheet1!N25</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <f>Sheet1!O25</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <f>Sheet1!P25</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <f>Sheet1!Q25</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <f>Sheet1!R25</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <f>Sheet1!S25</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <f>Sheet1!T25</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <f>Sheet1!U25</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <f>Sheet1!V25</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <f>Sheet1!W25</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <f>Sheet1!X25</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <f>Sheet1!Y25</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <f>Sheet1!Z25</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <f>Sheet1!AA25</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <f>Sheet1!AB25</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <f>Sheet1!AC25</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="14">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
